--- a/biology/Neurosciences/Sophisme_de_la_cause_unique/Sophisme_de_la_cause_unique.xlsx
+++ b/biology/Neurosciences/Sophisme_de_la_cause_unique/Sophisme_de_la_cause_unique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sophisme de la cause unique, aussi connu sous le nom cause complexe, simplification de causalité, réductionnisme causal et sophisme réducteur[1], est un sophisme de cause douteuse qui se produit lorsque l'on suppose qu'il y a une seule cause simple à un événement alors qu'en réalité il peut avoir été causé par un certain nombre de causes suffisantes seulement conjointes.
-Le sophisme peut être logiquement réduit à : Y est survenu après X. Par conséquent, Y est causé par X (bien que A, B, C, etc. aient également provoqué Y)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sophisme de la cause unique, aussi connu sous le nom cause complexe, simplification de causalité, réductionnisme causal et sophisme réducteur, est un sophisme de cause douteuse qui se produit lorsque l'on suppose qu'il y a une seule cause simple à un événement alors qu'en réalité il peut avoir été causé par un certain nombre de causes suffisantes seulement conjointes.
+Le sophisme peut être logiquement réduit à : Y est survenu après X. Par conséquent, Y est causé par X (bien que A, B, C, etc. aient également provoqué Y).
 La simplification de causalité est un type spécifique de faux dilemme où les possibilités conjointes sont ignorées. En d'autres termes, les causes possibles sont supposées être « A ou B ou C » quand « A et B et C » ou « A et B et non C », etc. ne sont pas prises en considération.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Souvent, après une tragédie, il est demandé, « quelle en a été la cause ? ». Un tel langage implique qu'il y a une cause, alors qu'il y a probablement eu un grand nombre de facteurs contributifs. Cependant, après avoir produit une liste de plusieurs facteurs, il peut être intéressant de chercher le plus important de ceux-ci, ou une seule cause sous-jacente au fondement de plusieurs d'entre eux. Le besoin de simplification peut être perçu de manière à rendre l'explication de la tragédie rationnelle, de sorte que les autorités responsables peuvent être considérées comme ayant pris des mesures.
 Après une tuerie en milieu scolaire par exemple, les éditorialistes se demandent si elle a été causée par les parents du tireur, la violence dans les médias, le stress enduré par les étudiants ou l'accessibilité des armes à feu. En fait, de nombreuses causes différentes — dont certaines d'entre elles — peuvent toutes y avoir nécessairement contribué. De même, l'industrie de la musique pourrait prétendre que le partage de fichiers en pair-à-pair est la cause d'une perte de bénéfices alors que des facteurs tels que la croissance du marché du jeu vidéo et la dépression économique sont également susceptibles d'être des facteurs importants.
